--- a/biology/Botanique/Rosa_fedtschenkoana/Rosa_fedtschenkoana.xlsx
+++ b/biology/Botanique/Rosa_fedtschenkoana/Rosa_fedtschenkoana.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Rosa fedtschenkoana est une espèce de plantes à fleurs de la famille des Rosaceae. C'est un rosier classé dans la section des Cinnamomeae, originaire d'Asie centrale : Turkestan, Kazakhstan, Afghanistan, Xinjiang (Chine)[1]. Ce rosier a été introduit en Europe par Olga Fedtschenko qui l'a trouvé lors de l'une de ses expéditions au Turkestan et l'a apporté au jardin botanique impérial de Saint-Pétersbourg où il a été étudié par Eduard von Regel, son directeur, qui l'a baptisé ainsi en 1878.
-Des analyses d'ADN réalisées au Japon ont montré que cette espèce était l'un des trois parents des rosiers de Damas[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Rosa fedtschenkoana est une espèce de plantes à fleurs de la famille des Rosaceae. C'est un rosier classé dans la section des Cinnamomeae, originaire d'Asie centrale : Turkestan, Kazakhstan, Afghanistan, Xinjiang (Chine). Ce rosier a été introduit en Europe par Olga Fedtschenko qui l'a trouvé lors de l'une de ses expéditions au Turkestan et l'a apporté au jardin botanique impérial de Saint-Pétersbourg où il a été étudié par Eduard von Regel, son directeur, qui l'a baptisé ainsi en 1878.
+Des analyses d'ADN réalisées au Japon ont montré que cette espèce était l'un des trois parents des rosiers de Damas.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Description[3]</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un buisson haut de 1 à 3 mètres, drageonnant, très rustique, dont les feuilles, composées  de 7 à 9 folioles, sont glauques sur les deux faces.
 Ses fleurs simples de 4 à 5 cm de diamètre, blanches, qui apparaissent tout l'été, ont une odeur désagréable.
